--- a/biology/Zoologie/Barracudasauroides/Barracudasauroides.xlsx
+++ b/biology/Zoologie/Barracudasauroides/Barracudasauroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barracudasauroides panxianensis
 Barracudasauroides (de barracuda, poisson osseux carnivore et sauroides, en forme de lézard) est un genre fossile d'ichtyosaure (du grec ιχθύς signifiant « poisson » et σαύρος signifiant « lézard »), de la famille des Mixosauridae, sous-famille des Mixosaurinae. Il a vécu pendant le Trias moyen.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Taille : 545 cm
 Poids : 80 kg</t>
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles de ce genre ont été trouvés dans la province du Guizhou, en Chine.
 </t>
@@ -575,10 +591,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Barracudasauroides est décrit en 2010 par le naturaliste Michael W. Maisch [1],[2].
-L'espèce Barracudasauroides panxianensis est décrite en 2006 par les paléontologues Jiang et al.[3],[4]. Son holotype GMPKU-P-1033 est un squelette partiel, provenant de l'Anisien de la Guanling (Formation de Guizhou), Chine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Barracudasauroides est décrit en 2010 par le naturaliste Michael W. Maisch ,.
+L'espèce Barracudasauroides panxianensis est décrite en 2006 par les paléontologues Jiang et al.,. Son holotype GMPKU-P-1033 est un squelette partiel, provenant de l'Anisien de la Guanling (Formation de Guizhou), Chine.
 </t>
         </is>
       </c>
